--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="461" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="461" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="None v. One" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>No Hidden Layer v. One Hidden Layer</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>One Hidden Layer v. Custom Network</t>
+  </si>
+  <si>
+    <t>Not statistically sig.</t>
   </si>
 </sst>
 </file>
@@ -284,8 +287,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C16" activeCellId="0" pane="topLeft" sqref="C16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F20" activeCellId="0" pane="topLeft" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -658,7 +661,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B17" activeCellId="0" pane="topLeft" sqref="B17"/>
+      <selection activeCell="F20" activeCellId="0" pane="topLeft" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -1024,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E27" activeCellId="0" pane="topLeft" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -1366,7 +1369,9 @@
       <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
